--- a/SchedulingData/dynamic16/pso/scheduling1_14.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>73.08</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>26.352</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>138.4</v>
       </c>
       <c r="E3" t="n">
-        <v>26.7</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>50.1</v>
+        <v>62.4</v>
       </c>
       <c r="E4" t="n">
-        <v>27.68</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="5">
@@ -523,55 +523,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>86.90000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>25.5</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>76.86</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>25.464</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>76.86</v>
+        <v>62.4</v>
       </c>
       <c r="D7" t="n">
-        <v>124.26</v>
+        <v>107.74</v>
       </c>
       <c r="E7" t="n">
-        <v>22.344</v>
+        <v>24.016</v>
       </c>
     </row>
     <row r="8">
@@ -580,36 +580,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>122.94</v>
+        <v>51.66</v>
       </c>
       <c r="E8" t="n">
-        <v>21.996</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.1</v>
+        <v>138.4</v>
       </c>
       <c r="D9" t="n">
-        <v>109.98</v>
+        <v>177.96</v>
       </c>
       <c r="E9" t="n">
-        <v>23.312</v>
+        <v>20.104</v>
       </c>
     </row>
     <row r="10">
@@ -618,22 +618,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>122.94</v>
+        <v>51.66</v>
       </c>
       <c r="D10" t="n">
-        <v>187.64</v>
+        <v>95.12</v>
       </c>
       <c r="E10" t="n">
-        <v>18.616</v>
+        <v>22.808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>49.12</v>
+        <v>54.12</v>
       </c>
       <c r="E11" t="n">
         <v>25.788</v>
@@ -656,36 +656,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>109.98</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>164.98</v>
+        <v>126.6</v>
       </c>
       <c r="E12" t="n">
-        <v>19.932</v>
+        <v>21.64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>86.90000000000001</v>
+        <v>126.6</v>
       </c>
       <c r="D13" t="n">
-        <v>138.8</v>
+        <v>180.02</v>
       </c>
       <c r="E13" t="n">
-        <v>22.42</v>
+        <v>17.428</v>
       </c>
     </row>
     <row r="14">
@@ -694,169 +694,169 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>49.12</v>
+        <v>107.74</v>
       </c>
       <c r="D14" t="n">
-        <v>126.72</v>
+        <v>147.6</v>
       </c>
       <c r="E14" t="n">
-        <v>21.628</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>164.98</v>
+        <v>147.6</v>
       </c>
       <c r="D15" t="n">
-        <v>228.08</v>
+        <v>218.32</v>
       </c>
       <c r="E15" t="n">
-        <v>15.732</v>
+        <v>18.168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>138.8</v>
+        <v>218.32</v>
       </c>
       <c r="D16" t="n">
-        <v>196.44</v>
+        <v>296.26</v>
       </c>
       <c r="E16" t="n">
-        <v>18.276</v>
+        <v>13.464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>187.64</v>
+        <v>177.96</v>
       </c>
       <c r="D17" t="n">
-        <v>268.26</v>
+        <v>220.46</v>
       </c>
       <c r="E17" t="n">
-        <v>15.624</v>
+        <v>16.984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>124.26</v>
+        <v>95.12</v>
       </c>
       <c r="D18" t="n">
-        <v>179.24</v>
+        <v>138.58</v>
       </c>
       <c r="E18" t="n">
-        <v>17.976</v>
+        <v>19.592</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>179.24</v>
+        <v>180.02</v>
       </c>
       <c r="D19" t="n">
-        <v>238.94</v>
+        <v>222.12</v>
       </c>
       <c r="E19" t="n">
-        <v>15.096</v>
+        <v>14.348</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>73.08</v>
+        <v>220.46</v>
       </c>
       <c r="D20" t="n">
-        <v>139.56</v>
+        <v>305.16</v>
       </c>
       <c r="E20" t="n">
-        <v>22.824</v>
+        <v>13.604</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>238.94</v>
+        <v>138.58</v>
       </c>
       <c r="D21" t="n">
-        <v>278.08</v>
+        <v>197.08</v>
       </c>
       <c r="E21" t="n">
-        <v>12.312</v>
+        <v>15.872</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>139.56</v>
+        <v>296.26</v>
       </c>
       <c r="D22" t="n">
-        <v>183.26</v>
+        <v>351.86</v>
       </c>
       <c r="E22" t="n">
-        <v>19.584</v>
+        <v>11.024</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>278.08</v>
+        <v>305.16</v>
       </c>
       <c r="D23" t="n">
-        <v>327.34</v>
+        <v>374.94</v>
       </c>
       <c r="E23" t="n">
-        <v>8.516</v>
+        <v>9.236000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -884,55 +884,55 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>183.26</v>
+        <v>54.12</v>
       </c>
       <c r="D24" t="n">
-        <v>224.66</v>
+        <v>115.6</v>
       </c>
       <c r="E24" t="n">
-        <v>17.064</v>
+        <v>22.26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>224.66</v>
+        <v>351.86</v>
       </c>
       <c r="D25" t="n">
-        <v>280.82</v>
+        <v>406</v>
       </c>
       <c r="E25" t="n">
-        <v>13.088</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>327.34</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>413.08</v>
+        <v>134.66</v>
       </c>
       <c r="E26" t="n">
-        <v>5.032</v>
+        <v>22.304</v>
       </c>
     </row>
     <row r="27">
@@ -941,112 +941,112 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>126.72</v>
+        <v>406</v>
       </c>
       <c r="D27" t="n">
-        <v>168.54</v>
+        <v>474.96</v>
       </c>
       <c r="E27" t="n">
-        <v>19.076</v>
+        <v>4.444</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>268.26</v>
+        <v>374.94</v>
       </c>
       <c r="D28" t="n">
-        <v>315.06</v>
+        <v>414.34</v>
       </c>
       <c r="E28" t="n">
-        <v>12.584</v>
+        <v>6.916</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>168.54</v>
+        <v>197.08</v>
       </c>
       <c r="D29" t="n">
-        <v>224.16</v>
+        <v>263.74</v>
       </c>
       <c r="E29" t="n">
-        <v>15.644</v>
+        <v>11.336</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>280.82</v>
+        <v>263.74</v>
       </c>
       <c r="D30" t="n">
-        <v>335.08</v>
+        <v>312.54</v>
       </c>
       <c r="E30" t="n">
-        <v>9.292</v>
+        <v>8.096</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>413.08</v>
+        <v>474.96</v>
       </c>
       <c r="D31" t="n">
-        <v>489.2</v>
+        <v>524.16</v>
       </c>
       <c r="E31" t="n">
-        <v>2.04</v>
+        <v>1.144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>196.44</v>
+        <v>524.16</v>
       </c>
       <c r="D32" t="n">
-        <v>259.84</v>
+        <v>588.87</v>
       </c>
       <c r="E32" t="n">
-        <v>14.076</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -1055,74 +1055,74 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>259.84</v>
+        <v>134.66</v>
       </c>
       <c r="D33" t="n">
-        <v>333.64</v>
+        <v>187.44</v>
       </c>
       <c r="E33" t="n">
-        <v>10.776</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>228.08</v>
+        <v>115.6</v>
       </c>
       <c r="D34" t="n">
-        <v>291.5</v>
+        <v>164.8</v>
       </c>
       <c r="E34" t="n">
-        <v>11.52</v>
+        <v>18.96</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>489.2</v>
+        <v>588.87</v>
       </c>
       <c r="D35" t="n">
-        <v>562.12</v>
+        <v>639.5700000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>562.12</v>
+        <v>222.12</v>
       </c>
       <c r="D36" t="n">
-        <v>634.8200000000001</v>
+        <v>275.9</v>
       </c>
       <c r="E36" t="n">
-        <v>26.88</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="37">
@@ -1131,17 +1131,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>335.08</v>
+        <v>164.8</v>
       </c>
       <c r="D37" t="n">
-        <v>388.54</v>
+        <v>246.1</v>
       </c>
       <c r="E37" t="n">
-        <v>6.076</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>291.5</v>
+        <v>275.9</v>
       </c>
       <c r="D38" t="n">
-        <v>344.28</v>
+        <v>364.66</v>
       </c>
       <c r="E38" t="n">
-        <v>7.872</v>
+        <v>8.263999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1169,93 +1169,93 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>333.64</v>
+        <v>187.44</v>
       </c>
       <c r="D39" t="n">
-        <v>395.3</v>
+        <v>265.08</v>
       </c>
       <c r="E39" t="n">
-        <v>6.72</v>
+        <v>14.512</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>224.16</v>
+        <v>414.34</v>
       </c>
       <c r="D40" t="n">
-        <v>274.66</v>
+        <v>449.14</v>
       </c>
       <c r="E40" t="n">
-        <v>13.204</v>
+        <v>4.076</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>274.66</v>
+        <v>449.14</v>
       </c>
       <c r="D41" t="n">
-        <v>328.26</v>
+        <v>480.74</v>
       </c>
       <c r="E41" t="n">
-        <v>9.964</v>
+        <v>1.556</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>388.54</v>
+        <v>480.74</v>
       </c>
       <c r="D42" t="n">
-        <v>447.04</v>
+        <v>549.53</v>
       </c>
       <c r="E42" t="n">
-        <v>2.356</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>395.3</v>
+        <v>364.66</v>
       </c>
       <c r="D43" t="n">
-        <v>452.9</v>
+        <v>460.78</v>
       </c>
       <c r="E43" t="n">
-        <v>3.08</v>
+        <v>4.232</v>
       </c>
     </row>
     <row r="44">
@@ -1264,169 +1264,169 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>328.26</v>
+        <v>639.5700000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>377.72</v>
+        <v>694.67</v>
       </c>
       <c r="E44" t="n">
-        <v>7.148</v>
+        <v>22.24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>315.06</v>
+        <v>246.1</v>
       </c>
       <c r="D45" t="n">
-        <v>357.46</v>
+        <v>315.5</v>
       </c>
       <c r="E45" t="n">
-        <v>8.984</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>452.9</v>
+        <v>549.53</v>
       </c>
       <c r="D46" t="n">
-        <v>538.24</v>
+        <v>604.3099999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>538.24</v>
+        <v>460.78</v>
       </c>
       <c r="D47" t="n">
-        <v>586.72</v>
+        <v>512.5</v>
       </c>
       <c r="E47" t="n">
-        <v>26.832</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>377.72</v>
+        <v>512.5</v>
       </c>
       <c r="D48" t="n">
-        <v>418.76</v>
+        <v>590.84</v>
       </c>
       <c r="E48" t="n">
-        <v>4.684</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>344.28</v>
+        <v>265.08</v>
       </c>
       <c r="D49" t="n">
-        <v>407.64</v>
+        <v>306.12</v>
       </c>
       <c r="E49" t="n">
-        <v>4.656</v>
+        <v>12.048</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>418.76</v>
+        <v>306.12</v>
       </c>
       <c r="D50" t="n">
-        <v>488.56</v>
+        <v>363.42</v>
       </c>
       <c r="E50" t="n">
-        <v>0.304</v>
+        <v>8.928000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>488.56</v>
+        <v>312.54</v>
       </c>
       <c r="D51" t="n">
-        <v>564.75</v>
+        <v>365.32</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>4.928</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>407.64</v>
+        <v>363.42</v>
       </c>
       <c r="D52" t="n">
-        <v>447.02</v>
+        <v>411.2</v>
       </c>
       <c r="E52" t="n">
-        <v>1.848</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="53">
@@ -1435,128 +1435,128 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>447.02</v>
+        <v>590.84</v>
       </c>
       <c r="D53" t="n">
-        <v>525.02</v>
+        <v>640.84</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>525.02</v>
+        <v>365.32</v>
       </c>
       <c r="D54" t="n">
-        <v>569.8</v>
+        <v>420.52</v>
       </c>
       <c r="E54" t="n">
-        <v>27.712</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>564.75</v>
+        <v>420.52</v>
       </c>
       <c r="D55" t="n">
-        <v>625.29</v>
+        <v>496.22</v>
       </c>
       <c r="E55" t="n">
-        <v>27.096</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>357.46</v>
+        <v>315.5</v>
       </c>
       <c r="D56" t="n">
-        <v>446.96</v>
+        <v>361.82</v>
       </c>
       <c r="E56" t="n">
-        <v>4.604</v>
+        <v>8.108000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>569.8</v>
+        <v>361.82</v>
       </c>
       <c r="D57" t="n">
-        <v>614.1</v>
+        <v>434.94</v>
       </c>
       <c r="E57" t="n">
-        <v>24.412</v>
+        <v>3.896</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>446.96</v>
+        <v>411.2</v>
       </c>
       <c r="D58" t="n">
-        <v>515.1799999999999</v>
+        <v>476.08</v>
       </c>
       <c r="E58" t="n">
-        <v>0.392</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>515.1799999999999</v>
+        <v>476.08</v>
       </c>
       <c r="D59" t="n">
-        <v>601.1</v>
+        <v>561.0599999999999</v>
       </c>
       <c r="E59" t="n">
         <v>30</v>
@@ -1564,135 +1564,154 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>601.1</v>
+        <v>640.84</v>
       </c>
       <c r="D60" t="n">
-        <v>641.4</v>
+        <v>701.16</v>
       </c>
       <c r="E60" t="n">
-        <v>27.16</v>
+        <v>23.268</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>641.4</v>
+        <v>561.0599999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>700.86</v>
+        <v>620.16</v>
       </c>
       <c r="E61" t="n">
-        <v>24.304</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>634.8200000000001</v>
+        <v>434.94</v>
       </c>
       <c r="D62" t="n">
-        <v>676.92</v>
+        <v>491.34</v>
       </c>
       <c r="E62" t="n">
-        <v>23.8</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>676.92</v>
+        <v>491.34</v>
       </c>
       <c r="D63" t="n">
-        <v>748.92</v>
+        <v>600.9299999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>20.68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>586.72</v>
+        <v>496.22</v>
       </c>
       <c r="D64" t="n">
-        <v>661.22</v>
+        <v>539.42</v>
       </c>
       <c r="E64" t="n">
-        <v>23.472</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>661.22</v>
+        <v>600.9299999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>762.34</v>
+        <v>683.23</v>
       </c>
       <c r="E65" t="n">
-        <v>19.44</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>pond6</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>620.16</v>
+      </c>
+      <c r="D66" t="n">
+        <v>671.3</v>
+      </c>
+      <c r="E66" t="n">
+        <v>23.276</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
         <v>4</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>pond18</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>625.29</v>
-      </c>
-      <c r="D66" t="n">
-        <v>673.63</v>
-      </c>
-      <c r="E66" t="n">
-        <v>24.392</v>
+      <c r="C67" t="n">
+        <v>694.67</v>
+      </c>
+      <c r="D67" t="n">
+        <v>757.51</v>
+      </c>
+      <c r="E67" t="n">
+        <v>19.536</v>
       </c>
     </row>
   </sheetData>
